--- a/documents/テーブル定義書(卒業課題).xlsx
+++ b/documents/テーブル定義書(卒業課題).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -243,7 +243,7 @@
   </si>
   <si>
     <t>ユーザーを識別するためのIDでユーザーマスタテーブルの「user_id」と同じ値。
-カレンダー追加操作にて反映</t>
+予定追加操作にて反映</t>
   </si>
   <si>
     <t>予定</t>
@@ -255,7 +255,7 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>カレンダー追加・編集・削除操作にて反映</t>
+    <t>予定追加・編集・削除操作にて反映</t>
   </si>
   <si>
     <t>メモ</t>
@@ -288,7 +288,7 @@
     <t>all_day_flg</t>
   </si>
   <si>
-    <t>カレンダー追加・編集・削除操作にて反映
+    <t>予定追加・編集・削除操作にて反映
 0:終日ではない
 1:終日</t>
   </si>
@@ -310,6 +310,14 @@
   </si>
   <si>
     <t>end_time</t>
+  </si>
+  <si>
+    <t>calendar_delete_flg</t>
+  </si>
+  <si>
+    <t>予定削除操作にて反映
+0:未削除
+1:削除済み</t>
   </si>
 </sst>
 </file>
@@ -914,7 +922,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -944,7 +951,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -970,7 +976,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -996,7 +1001,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1022,7 +1026,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1048,7 +1051,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1074,7 +1076,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1100,7 +1101,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1126,7 +1126,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1152,7 +1151,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1203,7 +1201,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1229,7 +1226,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1255,7 +1251,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1281,7 +1276,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1307,7 +1301,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1333,7 +1326,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1359,7 +1351,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1385,7 +1376,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1411,7 +1401,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1437,7 +1426,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1485,7 +1473,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1515,7 +1502,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1541,7 +1527,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1567,7 +1552,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1593,7 +1577,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1619,7 +1602,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1645,7 +1627,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1671,7 +1652,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1697,7 +1677,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1723,7 +1702,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3350,7 +3328,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="s" s="39">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s" s="39">
         <v>43</v>
@@ -3377,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s" s="39">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
